--- a/content/project/pandemic-burden-march-to-june/tables.xlsx
+++ b/content/project/pandemic-burden-march-to-june/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justiningels/Documents/GitHub/academic-kickstart/content/project/pandemic-burden-march-to-june/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FEEEDF-FF0E-BB4D-A938-C1846354B3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FBA8FD-68B1-B04D-88E2-A1A5508EBDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="460" windowWidth="29620" windowHeight="18540" activeTab="1" xr2:uid="{4652F6ED-3565-7742-A44D-9E2E8A168F21}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>Early, Troup, Randolph, Worth, Dougherty, Sumter, Terrell, Tift, Dooly, Mitchell, Stewart, Atkinson, Calhoun, Clay, Hall, Habersham Colquitt, Turner, Clinch, Bacon, Hancock</t>
   </si>
   <si>
-    <t>Table 2: Incidence per 10K</t>
+    <t>Table 2: Incident cases per 10,000 population</t>
   </si>
 </sst>
 </file>
@@ -291,25 +291,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,7 +629,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,12 +642,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -738,28 +738,28 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="57.5" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -783,7 +783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -794,7 +794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="256" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="188" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
